--- a/data/cd_acv.xlsx
+++ b/data/cd_acv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.9125260946832811</v>
+        <v>0.9188231243875957</v>
       </c>
       <c r="D2">
-        <v>0.912525189291544</v>
+        <v>0.01138684070920371</v>
       </c>
       <c r="E2">
-        <v>0.9062554808535517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.9129633749106221</v>
+      </c>
+      <c r="F2">
+        <v>0.008360109853643438</v>
+      </c>
+      <c r="G2">
+        <v>0.9061351659119197</v>
+      </c>
+      <c r="H2">
+        <v>0.008709544003751301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.9056108419367105</v>
+        <v>0.9152453589682477</v>
       </c>
       <c r="D3">
-        <v>0.8999835736070547</v>
+        <v>0.009912140208083203</v>
       </c>
       <c r="E3">
-        <v>0.8999838322904082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.9001120203384444</v>
+      </c>
+      <c r="F3">
+        <v>0.007484977942516059</v>
+      </c>
+      <c r="G3">
+        <v>0.9023902968671381</v>
+      </c>
+      <c r="H3">
+        <v>0.009633082692969813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.8826166079886594</v>
+        <v>0.8778281825163529</v>
       </c>
       <c r="D4">
-        <v>0.8978931534276837</v>
+        <v>0.02026078736925795</v>
       </c>
       <c r="E4">
-        <v>0.8798849117760422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.8929525171473214</v>
+      </c>
+      <c r="F4">
+        <v>0.009900576506895261</v>
+      </c>
+      <c r="G4">
+        <v>0.8757122427901803</v>
+      </c>
+      <c r="H4">
+        <v>0.009343281117336819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.9126858316540473</v>
+        <v>0.9134538280236223</v>
       </c>
       <c r="D5">
-        <v>0.9216907285299284</v>
+        <v>0.0101221123050728</v>
       </c>
       <c r="E5">
-        <v>0.902876946915589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.9274420698604381</v>
+      </c>
+      <c r="F5">
+        <v>0.008574366708933129</v>
+      </c>
+      <c r="G5">
+        <v>0.9041818278117633</v>
+      </c>
+      <c r="H5">
+        <v>0.007838049613821689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.8623539409115484</v>
+        <v>0.8849858319430099</v>
       </c>
       <c r="D6">
-        <v>0.832929614846355</v>
+        <v>0.01663871656508185</v>
       </c>
       <c r="E6">
-        <v>0.8486909328897777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.8395913773469982</v>
+      </c>
+      <c r="F6">
+        <v>0.01216175278667438</v>
+      </c>
+      <c r="G6">
+        <v>0.8683909324435264</v>
+      </c>
+      <c r="H6">
+        <v>0.008891532393564765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.8988575249694106</v>
+        <v>0.9328118958714017</v>
       </c>
       <c r="D7">
-        <v>0.8676636754248227</v>
+        <v>0.01293349059205216</v>
       </c>
       <c r="E7">
-        <v>0.8866377113766351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.9245133868276794</v>
+      </c>
+      <c r="F7">
+        <v>0.01071376677207109</v>
+      </c>
+      <c r="G7">
+        <v>0.9168703159344297</v>
+      </c>
+      <c r="H7">
+        <v>0.008647476777694138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.7631439598730382</v>
+        <v>0.9217515425968592</v>
       </c>
       <c r="D8">
-        <v>0.8078463834773769</v>
+        <v>0.009948321308492932</v>
       </c>
       <c r="E8">
-        <v>0.7692572942238594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.9155807570627023</v>
-      </c>
-      <c r="D9">
-        <v>0.9282840498431085</v>
-      </c>
-      <c r="E9">
-        <v>0.9128475087499645</v>
+        <v>0.9300450199941738</v>
+      </c>
+      <c r="F8">
+        <v>0.004911441279662837</v>
+      </c>
+      <c r="G8">
+        <v>0.9155681788088239</v>
+      </c>
+      <c r="H8">
+        <v>0.009247709485030942</v>
       </c>
     </row>
   </sheetData>
